--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LCI_Vancouver-DWaine\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D563DF-0C93-4DF9-8EB3-A850850C0DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D01E7A-2008-4786-AD72-477A7778A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -119,36 +119,15 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Your name</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
-    <t>Sprint 1 : &lt;sprint focus&gt;</t>
-  </si>
-  <si>
     <t>Milestone</t>
   </si>
   <si>
-    <t>Sprint 2: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
-    <t>Sprint 3: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
-    <t>Sprint 4: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
-    <t>Sprint 5: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
-    <t>Sprint 6: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
     <t>Sprint 7: &lt;sprint focus&gt;</t>
   </si>
   <si>
@@ -183,6 +162,99 @@
   </si>
   <si>
     <t>Configuration</t>
+  </si>
+  <si>
+    <t>Cave Painting Project</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Tilemap design</t>
+  </si>
+  <si>
+    <t>Implement Enemy AI</t>
+  </si>
+  <si>
+    <t>Implement Boss AI</t>
+  </si>
+  <si>
+    <t>Implement lighting and shaders</t>
+  </si>
+  <si>
+    <t>Polish and test game</t>
+  </si>
+  <si>
+    <t>Implement camera movement and other smaller details</t>
+  </si>
+  <si>
+    <t>Sprint 1 : Tilemap Design</t>
+  </si>
+  <si>
+    <t>Create map for starting area and first passageway</t>
+  </si>
+  <si>
+    <t>Create map for the first room</t>
+  </si>
+  <si>
+    <t>Create map for the second room</t>
+  </si>
+  <si>
+    <t>Create map for the boss room</t>
+  </si>
+  <si>
+    <t>Sprint 2: Enemy AI</t>
+  </si>
+  <si>
+    <t>Create implment a way for enemies to "see" the player</t>
+  </si>
+  <si>
+    <t>Implement charging enemy</t>
+  </si>
+  <si>
+    <t>Implement flying enemy</t>
+  </si>
+  <si>
+    <t>Sprint 3: Boss AI</t>
+  </si>
+  <si>
+    <t>Implement a generic state machine</t>
+  </si>
+  <si>
+    <t>Implement different states for the boss</t>
+  </si>
+  <si>
+    <t>Implement the transitions between those states</t>
+  </si>
+  <si>
+    <t>Sprint 4: Camera movement and details</t>
+  </si>
+  <si>
+    <t>Find a way to change Z value of camera based on where player is</t>
+  </si>
+  <si>
+    <t>Implement camera controller</t>
+  </si>
+  <si>
+    <t>Implement foreground</t>
+  </si>
+  <si>
+    <t>Implement destructible objects</t>
+  </si>
+  <si>
+    <t>Sprint 5: Lighting and Shaders</t>
+  </si>
+  <si>
+    <t>Implement an ambient light that lights up most of the screen</t>
+  </si>
+  <si>
+    <t>Implement lights that are in the map</t>
+  </si>
+  <si>
+    <t>Create a shader that uses a normal map for the background</t>
+  </si>
+  <si>
+    <t>Sprint 6: Polish and Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -192,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1096,26 +1168,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="88.7265625" customWidth="1"/>
-    <col min="12" max="25" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="88.77734375" customWidth="1"/>
+    <col min="12" max="25" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1">
+    <row r="1" spans="1:25" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1154,9 +1226,11 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1">
+    <row r="2" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="22"/>
       <c r="D2" s="5">
         <v>45390</v>
@@ -1189,7 +1263,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.5">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1216,7 +1290,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1339,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1274,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E5" s="31">
         <f>SUM(E6:E12)</f>
@@ -1284,11 +1358,11 @@
         <v>45390</v>
       </c>
       <c r="G5" s="57">
-        <v>45490</v>
+        <v>45460</v>
       </c>
       <c r="H5" s="58">
         <f t="shared" ref="H5" si="0">G5-F5+1</f>
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I5" s="59">
         <f>SUM(I6:I10)</f>
@@ -1314,10 +1388,14 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="23"/>
       <c r="E6" s="31">
         <f>E13</f>
@@ -1328,7 +1406,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
       <c r="J6" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="1"/>
@@ -1346,10 +1424,14 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="16">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="23"/>
       <c r="E7" s="31">
         <f>E19</f>
@@ -1360,7 +1442,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
       <c r="J7" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="1"/>
@@ -1378,10 +1460,14 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="16">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="23"/>
       <c r="E8" s="31">
         <f>E25</f>
@@ -1392,7 +1478,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
       <c r="J8" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="1"/>
@@ -1410,10 +1496,14 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="16">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="31">
         <f>E31</f>
@@ -1424,7 +1514,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
       <c r="J9" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="1"/>
@@ -1442,10 +1532,14 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="31">
         <f>E37</f>
@@ -1456,7 +1550,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="11"/>
       <c r="J10" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="61"/>
       <c r="L10" s="1"/>
@@ -1474,10 +1568,14 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="31">
         <f>E43</f>
@@ -1488,7 +1586,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="51"/>
       <c r="J11" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="1"/>
@@ -1506,10 +1604,14 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="23"/>
       <c r="E12" s="31">
         <f>E49</f>
@@ -1520,7 +1622,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="51"/>
       <c r="J12" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="61"/>
       <c r="L12" s="1"/>
@@ -1538,13 +1640,13 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="33">
@@ -1562,7 +1664,7 @@
       </c>
       <c r="I13" s="59">
         <f>SUM(I14:I18)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="58" t="str">
         <f>IF(COUNTIF(J14:J18, "Not Started") = COUNT(J14:J18), "Complete", "Not Started")</f>
@@ -1584,18 +1686,22 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
+      <c r="B14" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="50"/>
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
       <c r="J14" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="1"/>
@@ -1613,18 +1719,22 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="50"/>
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18">
+        <v>2</v>
+      </c>
       <c r="J15" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="1"/>
@@ -1642,18 +1752,22 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="56" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="50"/>
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
       <c r="J16" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="1"/>
@@ -1671,18 +1785,22 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
       <c r="J17" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="1"/>
@@ -1700,7 +1818,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
@@ -1711,7 +1829,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="1"/>
@@ -1729,13 +1847,13 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="39">
@@ -1753,7 +1871,7 @@
       </c>
       <c r="I19" s="59">
         <f>SUM(I20:I24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" s="58" t="str">
         <f>IF(COUNTIF(J20:J24, "Not Started") = COUNT(J20:J24), "Complete", "Not Started")</f>
@@ -1775,20 +1893,24 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="56" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
       <c r="J20" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="1"/>
@@ -1806,20 +1928,24 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="56"/>
+      <c r="B21" s="56" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>3</v>
+      </c>
       <c r="J21" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="1"/>
@@ -1837,20 +1963,24 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="56"/>
+      <c r="B22" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>2</v>
+      </c>
       <c r="J22" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="1"/>
@@ -1868,11 +1998,11 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="56"/>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -1881,7 +2011,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="1"/>
@@ -1899,11 +2029,11 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -1912,7 +2042,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
       <c r="J24" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="1"/>
@@ -1930,13 +2060,13 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="39">
@@ -1954,7 +2084,7 @@
       </c>
       <c r="I25" s="59">
         <f>SUM(I26:I29)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J25" s="58" t="str">
         <f>IF(COUNTIF(J26:J30, "Not Started") = COUNT(J26:J30), "Complete", "Not Started")</f>
@@ -1976,20 +2106,24 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="56"/>
+      <c r="B26" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18">
+        <v>4</v>
+      </c>
       <c r="J26" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
@@ -2007,20 +2141,24 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="56"/>
+      <c r="B27" s="56" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18">
+        <v>2</v>
+      </c>
       <c r="J27" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="1"/>
@@ -2038,20 +2176,24 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18">
+        <v>2</v>
+      </c>
       <c r="J28" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>
@@ -2069,11 +2211,11 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="56"/>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -2082,7 +2224,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
       <c r="J29" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="1"/>
@@ -2100,11 +2242,11 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -2113,7 +2255,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
       <c r="J30" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="1"/>
@@ -2131,13 +2273,13 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="39">
@@ -2177,11 +2319,13 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="56"/>
+      <c r="B32" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="C32" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
@@ -2190,7 +2334,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
       <c r="J32" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="1"/>
@@ -2208,11 +2352,13 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="56"/>
+      <c r="B33" s="56" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -2221,7 +2367,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>
       <c r="J33" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="1"/>
@@ -2239,11 +2385,13 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -2252,7 +2400,7 @@
       <c r="H34" s="17"/>
       <c r="I34" s="18"/>
       <c r="J34" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="1"/>
@@ -2270,11 +2418,13 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="56" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
@@ -2283,7 +2433,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="18"/>
       <c r="J35" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="1"/>
@@ -2301,11 +2451,11 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
@@ -2314,7 +2464,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="18"/>
       <c r="J36" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="1"/>
@@ -2332,13 +2482,13 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="39">
@@ -2378,11 +2528,13 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
-      <c r="B38" s="56"/>
+      <c r="B38" s="56" t="s">
+        <v>62</v>
+      </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
@@ -2391,7 +2543,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
       <c r="J38" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="1"/>
@@ -2409,11 +2561,13 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
-      <c r="B39" s="56"/>
+      <c r="B39" s="56" t="s">
+        <v>63</v>
+      </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
@@ -2422,7 +2576,7 @@
       <c r="H39" s="17"/>
       <c r="I39" s="18"/>
       <c r="J39" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="1"/>
@@ -2440,11 +2594,13 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
-      <c r="B40" s="56"/>
+      <c r="B40" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -2453,7 +2609,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="18"/>
       <c r="J40" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="1"/>
@@ -2471,11 +2627,11 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="56"/>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
@@ -2484,7 +2640,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="18"/>
       <c r="J41" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="1"/>
@@ -2502,11 +2658,11 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -2515,7 +2671,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="18"/>
       <c r="J42" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="1"/>
@@ -2533,13 +2689,13 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="39">
@@ -2579,11 +2735,11 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="56"/>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -2592,7 +2748,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="18"/>
       <c r="J44" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="1"/>
@@ -2610,11 +2766,11 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="56"/>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
@@ -2623,7 +2779,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
       <c r="J45" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="1"/>
@@ -2641,11 +2797,11 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="56"/>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
@@ -2654,7 +2810,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
       <c r="J46" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="1"/>
@@ -2672,11 +2828,11 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="56"/>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
@@ -2685,7 +2841,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="18"/>
       <c r="J47" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="1"/>
@@ -2703,11 +2859,11 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="15"/>
@@ -2716,7 +2872,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="18"/>
       <c r="J48" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="1"/>
@@ -2734,13 +2890,13 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D49" s="40"/>
       <c r="E49" s="39">
@@ -2780,11 +2936,11 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
@@ -2793,7 +2949,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="18"/>
       <c r="J50" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="1"/>
@@ -2811,11 +2967,11 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="56"/>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
@@ -2824,7 +2980,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="18"/>
       <c r="J51" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="1"/>
@@ -2842,11 +2998,11 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="56"/>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
@@ -2855,7 +3011,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="18"/>
       <c r="J52" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="1"/>
@@ -2873,11 +3029,11 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="28.5" customHeight="1">
+    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="56"/>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
@@ -2886,7 +3042,7 @@
       <c r="H53" s="17"/>
       <c r="I53" s="18"/>
       <c r="J53" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="1"/>
@@ -2904,11 +3060,11 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="28.5" customHeight="1">
+    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="56"/>
       <c r="C54" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
@@ -2917,7 +3073,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="18"/>
       <c r="J54" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="1"/>
@@ -2935,13 +3091,13 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="28.5" customHeight="1">
+    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="45">
@@ -2956,7 +3112,7 @@
       <c r="H55" s="47"/>
       <c r="I55" s="48"/>
       <c r="J55" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="1"/>
@@ -2974,13 +3130,13 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="28.5" customHeight="1">
+    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15">
@@ -2995,7 +3151,7 @@
       <c r="H56" s="17"/>
       <c r="I56" s="18"/>
       <c r="J56" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="1"/>
@@ -3013,7 +3169,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3040,7 +3196,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3067,7 +3223,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3185,64 +3341,64 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D01E7A-2008-4786-AD72-477A7778A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC600BE-9D98-4D4A-9BD4-C04303EBC74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>Sprint 7: &lt;sprint focus&gt;</t>
-  </si>
-  <si>
     <t>Final Project</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Sprint 6: Polish and Bug fixing</t>
+  </si>
+  <si>
+    <t>Sprint 7: Polish and Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -1168,26 +1168,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="88.77734375" customWidth="1"/>
-    <col min="12" max="25" width="8.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1226,10 +1226,10 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="5">
@@ -1263,7 +1263,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1290,7 +1290,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="31">
         <f>SUM(E6:E12)</f>
@@ -1388,13 +1388,13 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="31">
@@ -1424,13 +1424,13 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="31">
@@ -1460,13 +1460,13 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="31">
@@ -1496,13 +1496,13 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="31">
@@ -1532,13 +1532,13 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="31">
@@ -1568,13 +1568,13 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="31">
@@ -1604,13 +1604,13 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="31">
@@ -1640,10 +1640,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>21</v>
@@ -1686,10 +1686,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="23"/>
@@ -1719,10 +1719,10 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="23"/>
@@ -1752,10 +1752,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="23"/>
@@ -1785,10 +1785,10 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="23"/>
@@ -1818,7 +1818,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
@@ -1847,10 +1847,10 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>21</v>
@@ -1893,10 +1893,10 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
@@ -1928,10 +1928,10 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>22</v>
@@ -1963,10 +1963,10 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>22</v>
@@ -1998,7 +1998,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="56"/>
       <c r="C23" s="9" t="s">
@@ -2029,7 +2029,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
@@ -2060,10 +2060,10 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>21</v>
@@ -2106,10 +2106,10 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>22</v>
@@ -2141,10 +2141,10 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2176,10 +2176,10 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -2211,7 +2211,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56"/>
       <c r="C29" s="9" t="s">
@@ -2242,7 +2242,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
@@ -2273,10 +2273,10 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>21</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="I31" s="59">
         <f>SUM(I32:I36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" s="58" t="str">
         <f>IF(COUNTIF(J32:J36, "Not Started") = COUNT(J32:J36), "Complete", "Not Started")</f>
@@ -2319,10 +2319,10 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2332,7 +2332,9 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
       <c r="J32" s="60" t="s">
         <v>20</v>
       </c>
@@ -2352,10 +2354,10 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>22</v>
@@ -2365,7 +2367,9 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="18">
+        <v>3</v>
+      </c>
       <c r="J33" s="60" t="s">
         <v>20</v>
       </c>
@@ -2385,10 +2389,10 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
@@ -2398,7 +2402,9 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18">
+        <v>2</v>
+      </c>
       <c r="J34" s="60" t="s">
         <v>20</v>
       </c>
@@ -2418,10 +2424,10 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>22</v>
@@ -2431,7 +2437,9 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18">
+        <v>2</v>
+      </c>
       <c r="J35" s="60" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +2459,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
@@ -2482,10 +2490,10 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>21</v>
@@ -2506,7 +2514,7 @@
       </c>
       <c r="I37" s="59">
         <f>SUM(I38:I42)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J37" s="58" t="str">
         <f>IF(COUNTIF(J38:J42, "Not Started") = COUNT(J38:J42), "Complete", "Not Started")</f>
@@ -2528,10 +2536,10 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>22</v>
@@ -2541,7 +2549,9 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18">
+        <v>2</v>
+      </c>
       <c r="J38" s="60" t="s">
         <v>20</v>
       </c>
@@ -2561,10 +2571,10 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>22</v>
@@ -2574,7 +2584,9 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="18">
+        <v>2</v>
+      </c>
       <c r="J39" s="60" t="s">
         <v>20</v>
       </c>
@@ -2594,10 +2606,10 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>22</v>
@@ -2607,7 +2619,9 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="18">
+        <v>4</v>
+      </c>
       <c r="J40" s="60" t="s">
         <v>20</v>
       </c>
@@ -2627,7 +2641,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="56"/>
       <c r="C41" s="9" t="s">
@@ -2658,7 +2672,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
@@ -2689,10 +2703,10 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>21</v>
@@ -2735,7 +2749,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="56"/>
       <c r="C44" s="9" t="s">
@@ -2766,7 +2780,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="56"/>
       <c r="C45" s="9" t="s">
@@ -2797,7 +2811,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56"/>
       <c r="C46" s="9" t="s">
@@ -2828,7 +2842,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="56"/>
       <c r="C47" s="9" t="s">
@@ -2859,7 +2873,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
@@ -2890,10 +2904,10 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>21</v>
@@ -2936,7 +2950,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56"/>
       <c r="C50" s="9" t="s">
@@ -2967,7 +2981,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="56"/>
       <c r="C51" s="9" t="s">
@@ -2998,7 +3012,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="56"/>
       <c r="C52" s="9" t="s">
@@ -3029,7 +3043,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="56"/>
       <c r="C53" s="9" t="s">
@@ -3060,7 +3074,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="56"/>
       <c r="C54" s="9" t="s">
@@ -3091,13 +3105,13 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="43" t="s">
         <v>24</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>25</v>
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="45">
@@ -3130,13 +3144,13 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15">
@@ -3169,7 +3183,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3196,7 +3210,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3223,7 +3237,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3341,64 +3355,64 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC600BE-9D98-4D4A-9BD4-C04303EBC74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F689F43-4138-4085-BE36-5EC7CD6C3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Sprint 2: Enemy AI</t>
   </si>
   <si>
-    <t>Create implment a way for enemies to "see" the player</t>
-  </si>
-  <si>
     <t>Implement charging enemy</t>
   </si>
   <si>
@@ -255,6 +252,27 @@
   </si>
   <si>
     <t>Sprint 7: Polish and Bug fixing</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Create a way for enemies to "see" the player</t>
+  </si>
+  <si>
+    <t>Small flash when player gets hurt</t>
+  </si>
+  <si>
+    <t>Screen shake on certain actions</t>
+  </si>
+  <si>
+    <t>Test game and find features that can be improved fixed</t>
+  </si>
+  <si>
+    <t>Test game and find features that can be improved /fixed</t>
+  </si>
+  <si>
+    <t>4 Completed rooms to the start of a metroidvania. It will have precision platform elements as well as action and puzzle solving elements</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1228,9 @@
       <c r="J1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1231,7 +1251,9 @@
       <c r="B2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" s="5">
         <v>45390</v>
       </c>
@@ -1368,9 +1390,8 @@
         <f>SUM(I6:I10)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="58" t="str">
-        <f>IF(COUNTIF(J6:J12, "Not Started") = COUNT(J6:J12), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J5" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="1"/>
@@ -1406,7 +1427,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
       <c r="J6" s="63" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="1"/>
@@ -1896,7 +1917,7 @@
     <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
@@ -1931,7 +1952,7 @@
     <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>22</v>
@@ -1966,7 +1987,7 @@
     <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>22</v>
@@ -2063,7 +2084,7 @@
     <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>21</v>
@@ -2109,7 +2130,7 @@
     <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>22</v>
@@ -2144,7 +2165,7 @@
     <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2179,7 +2200,7 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -2276,7 +2297,7 @@
     <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>21</v>
@@ -2322,7 +2343,7 @@
     <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2357,7 +2378,7 @@
     <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>22</v>
@@ -2392,7 +2413,7 @@
     <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
@@ -2427,7 +2448,7 @@
     <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>22</v>
@@ -2493,7 +2514,7 @@
     <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>21</v>
@@ -2539,7 +2560,7 @@
     <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>22</v>
@@ -2574,7 +2595,7 @@
     <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>22</v>
@@ -2609,7 +2630,7 @@
     <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>22</v>
@@ -2706,7 +2727,7 @@
     <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>21</v>
@@ -2727,7 +2748,7 @@
       </c>
       <c r="I43" s="59">
         <f>SUM(I44:I48)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43" s="58" t="str">
         <f>IF(COUNTIF(J44:J48, "Not Started") = COUNT(J44:J48), "Complete", "Not Started")</f>
@@ -2751,7 +2772,9 @@
     </row>
     <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="56"/>
+      <c r="B44" s="56" t="s">
+        <v>67</v>
+      </c>
       <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2783,9 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
+      <c r="I44" s="18">
+        <v>2</v>
+      </c>
       <c r="J44" s="60" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +2807,9 @@
     </row>
     <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +2818,9 @@
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
       <c r="J45" s="60" t="s">
         <v>20</v>
       </c>
@@ -2813,16 +2842,20 @@
     </row>
     <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="C46" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
+      <c r="I46" s="18">
+        <v>4</v>
+      </c>
       <c r="J46" s="60" t="s">
         <v>20</v>
       </c>
@@ -2907,7 +2940,7 @@
     <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>21</v>
@@ -2928,7 +2961,7 @@
       </c>
       <c r="I49" s="59">
         <f>SUM(I50:I56)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J49" s="58" t="str">
         <f>IF(COUNTIF(J50:J56, "Not Started") = COUNT(J50:J56), "Complete", "Not Started")</f>
@@ -2952,7 +2985,9 @@
     </row>
     <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="C50" s="9" t="s">
         <v>22</v>
       </c>
@@ -2961,7 +2996,9 @@
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18">
+        <v>8</v>
+      </c>
       <c r="J50" s="60" t="s">
         <v>20</v>
       </c>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F689F43-4138-4085-BE36-5EC7CD6C3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C1C5B-AD84-4488-A890-7CAC3FACC9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -215,18 +215,9 @@
     <t>Implement a generic state machine</t>
   </si>
   <si>
-    <t>Implement different states for the boss</t>
-  </si>
-  <si>
-    <t>Implement the transitions between those states</t>
-  </si>
-  <si>
     <t>Sprint 4: Camera movement and details</t>
   </si>
   <si>
-    <t>Find a way to change Z value of camera based on where player is</t>
-  </si>
-  <si>
     <t>Implement camera controller</t>
   </si>
   <si>
@@ -257,6 +248,9 @@
     <t>In Progress</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Create a way for enemies to "see" the player</t>
   </si>
   <si>
@@ -272,7 +266,19 @@
     <t>Test game and find features that can be improved /fixed</t>
   </si>
   <si>
-    <t>4 Completed rooms to the start of a metroidvania. It will have precision platform elements as well as action and puzzle solving elements</t>
+    <t>4 completed rooms to the start of a metroidvania with platforming, action, and some puzzle elements</t>
+  </si>
+  <si>
+    <t>The start of a project that can be expanded upon. It will have fun, smooth movement, basic enemy AI, unique visuals made possible with shaders, lighting, and a unique artstyle.</t>
+  </si>
+  <si>
+    <t>Create different states for the boss</t>
+  </si>
+  <si>
+    <t>Create the transitions between those states</t>
+  </si>
+  <si>
+    <t>Find a way to change Z value of camera based on where player is on the map</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1258,7 +1264,7 @@
         <v>45390</v>
       </c>
       <c r="E2" s="5">
-        <v>45124</v>
+        <v>45094</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="6">
@@ -1269,7 +1275,9 @@
       <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1391,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="1"/>
@@ -1427,7 +1435,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
       <c r="J6" s="63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="1"/>
@@ -1595,7 +1603,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="31">
@@ -1631,7 +1639,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="31">
@@ -1722,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="1"/>
@@ -1755,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="1"/>
@@ -1917,7 +1925,7 @@
     <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
@@ -2165,7 +2173,7 @@
     <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="56" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2200,7 +2208,7 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -2297,7 +2305,7 @@
     <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>21</v>
@@ -2343,7 +2351,7 @@
     <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2378,7 +2386,7 @@
     <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>22</v>
@@ -2413,7 +2421,7 @@
     <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
@@ -2448,7 +2456,7 @@
     <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>22</v>
@@ -2514,7 +2522,7 @@
     <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>21</v>
@@ -2560,7 +2568,7 @@
     <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>22</v>
@@ -2595,7 +2603,7 @@
     <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>22</v>
@@ -2630,7 +2638,7 @@
     <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>22</v>
@@ -2727,7 +2735,7 @@
     <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>21</v>
@@ -2773,10 +2781,10 @@
     <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -2808,10 +2816,10 @@
     <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
@@ -2843,7 +2851,7 @@
     <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2940,7 +2948,7 @@
     <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>21</v>
@@ -2986,10 +2994,10 @@
     <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C1C5B-AD84-4488-A890-7CAC3FACC9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84406742-16EF-484F-ACEC-FD62E1111608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1192,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1895,6 @@
       <c r="J18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="19"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3310,63 +3344,77 @@
       <c r="Y59" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:I14">
-    <cfRule type="expression" dxfId="16" priority="9">
+  <conditionalFormatting sqref="A5:I14 K13:K16 K19:K56">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>REGEXMATCH($J5,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>REGEXMATCH($J5,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>REGEXMATCH($J5,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>REGEXMATCH($J17,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>REGEXMATCH($J17,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>REGEXMATCH($J17,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>REGEXMATCH($J17,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J56">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"Overdue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K13:K56 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A26:A29 C26:I29 A30:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56">
-    <cfRule type="expression" dxfId="3" priority="18">
+  <conditionalFormatting sqref="K5 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A26:A29 C26:I29 A30:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>REGEXMATCH($J5,".*Overdue.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>REGEXMATCH($J5,".*Not Started.*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>REGEXMATCH($J5,".*Cancelled.*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="3" priority="27">
+      <formula>REGEXMATCH($J18,".*Complete.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="28">
+      <formula>REGEXMATCH($J18,".*Overdue.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>REGEXMATCH($J18,".*Not Started.*")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>REGEXMATCH($J18,".*Cancelled.*")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84406742-16EF-484F-ACEC-FD62E1111608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A13A68-712D-476C-9ECA-95F2134F44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1470,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="11"/>
       <c r="J6" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
       <c r="J7" s="63" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="1"/>
@@ -1730,9 +1730,8 @@
         <f>SUM(I14:I18)</f>
         <v>6</v>
       </c>
-      <c r="J13" s="58" t="str">
-        <f>IF(COUNTIF(J14:J18, "Not Started") = COUNT(J14:J18), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J13" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="1"/>
@@ -1798,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="1"/>
@@ -1831,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="1"/>
@@ -1864,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="1"/>
@@ -1936,9 +1935,8 @@
         <f>SUM(I20:I24)</f>
         <v>6</v>
       </c>
-      <c r="J19" s="58" t="str">
-        <f>IF(COUNTIF(J20:J24, "Not Started") = COUNT(J20:J24), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J19" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="1"/>
@@ -1973,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="1"/>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A13A68-712D-476C-9ECA-95F2134F44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B365A06-CBFF-4741-A95A-1B254E3FC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Find a way to change Z value of camera based on where player is on the map</t>
+  </si>
+  <si>
+    <t>Doors and door switches</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2361,7 @@
       </c>
       <c r="I31" s="59">
         <f>SUM(I32:I36)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" s="58" t="str">
         <f>IF(COUNTIF(J32:J36, "Not Started") = COUNT(J32:J36), "Complete", "Not Started")</f>
@@ -2522,7 +2525,9 @@
     </row>
     <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" s="9" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2536,9 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
       <c r="J36" s="60" t="s">
         <v>20</v>
       </c>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B365A06-CBFF-4741-A95A-1B254E3FC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F36B1-96A8-493D-88CB-7CBC827F75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Doors and door switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>There was a bug that I couldn't figure out for a while so it took an hour longer than expected</t>
   </si>
 </sst>
 </file>
@@ -1231,25 +1237,25 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="88.6640625" customWidth="1"/>
+    <col min="12" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1290,7 +1296,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
         <v>34</v>
@@ -1331,7 +1337,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1358,7 +1364,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1413,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1455,7 +1461,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1491,7 +1497,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>37</v>
@@ -1527,7 +1533,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>38</v>
@@ -1563,7 +1569,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>41</v>
@@ -1599,7 +1605,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>39</v>
@@ -1635,7 +1641,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>40</v>
@@ -1671,7 +1677,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
@@ -1707,7 +1713,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>42</v>
@@ -1752,7 +1758,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>43</v>
@@ -1785,7 +1791,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>44</v>
@@ -1818,7 +1824,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>45</v>
@@ -1851,7 +1857,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>46</v>
@@ -1884,7 +1890,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
@@ -1912,7 +1918,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
         <v>47</v>
@@ -1957,7 +1963,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
         <v>64</v>
@@ -1974,9 +1980,11 @@
         <v>1</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1992,7 +2000,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="56" t="s">
         <v>48</v>
@@ -2009,9 +2017,11 @@
         <v>3</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2027,7 +2037,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="56" t="s">
         <v>49</v>
@@ -2044,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="1"/>
@@ -2062,7 +2072,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="56"/>
       <c r="C23" s="9" t="s">
@@ -2093,7 +2103,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
@@ -2124,7 +2134,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>50</v>
@@ -2170,7 +2180,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>51</v>
@@ -2205,7 +2215,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="56" t="s">
         <v>71</v>
@@ -2240,7 +2250,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>72</v>
@@ -2275,7 +2285,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="56"/>
       <c r="C29" s="9" t="s">
@@ -2306,7 +2316,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
@@ -2337,7 +2347,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
         <v>52</v>
@@ -2383,7 +2393,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>73</v>
@@ -2418,7 +2428,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
         <v>53</v>
@@ -2453,7 +2463,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>54</v>
@@ -2488,7 +2498,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="56" t="s">
         <v>55</v>
@@ -2523,7 +2533,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="20" t="s">
         <v>74</v>
@@ -2558,7 +2568,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>56</v>
@@ -2604,7 +2614,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
         <v>57</v>
@@ -2639,7 +2649,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>58</v>
@@ -2674,7 +2684,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>59</v>
@@ -2709,7 +2719,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="56"/>
       <c r="C41" s="9" t="s">
@@ -2740,7 +2750,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
@@ -2771,7 +2781,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
         <v>60</v>
@@ -2817,7 +2827,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="56" t="s">
         <v>65</v>
@@ -2852,7 +2862,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
         <v>66</v>
@@ -2887,7 +2897,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>67</v>
@@ -2922,7 +2932,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="56"/>
       <c r="C47" s="9" t="s">
@@ -2953,7 +2963,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
@@ -2984,7 +2994,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
         <v>61</v>
@@ -3030,7 +3040,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>68</v>
@@ -3065,7 +3075,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="56"/>
       <c r="C51" s="9" t="s">
@@ -3096,7 +3106,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="56"/>
       <c r="C52" s="9" t="s">
@@ -3127,7 +3137,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="56"/>
       <c r="C53" s="9" t="s">
@@ -3158,7 +3168,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="56"/>
       <c r="C54" s="9" t="s">
@@ -3189,7 +3199,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42" t="s">
         <v>23</v>
@@ -3228,7 +3238,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="36" t="s">
         <v>25</v>
@@ -3267,7 +3277,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3294,7 +3304,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3321,7 +3331,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3453,62 +3463,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>26</v>
       </c>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F36B1-96A8-493D-88CB-7CBC827F75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7E35E-B2BB-4875-8A2C-ADB91F8E90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>There was a bug that I couldn't figure out for a while so it took an hour longer than expected</t>
+  </si>
+  <si>
+    <t>Be able to move spear in all directions</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="1"/>
@@ -2054,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="1"/>
@@ -3077,7 +3080,9 @@
     </row>
     <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
-      <c r="B51" s="56"/>
+      <c r="B51" s="56" t="s">
+        <v>77</v>
+      </c>
       <c r="C51" s="9" t="s">
         <v>22</v>
       </c>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7E35E-B2BB-4875-8A2C-ADB91F8E90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F55B7A-FA6C-4D07-9D81-68875CC9E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Be able to move spear in all directions</t>
+  </si>
+  <si>
+    <t>Took way less time than I thought it would take (approx 1h 30)</t>
   </si>
 </sst>
 </file>
@@ -1239,26 +1242,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="88.6640625" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="88.7109375" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1299,7 +1302,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
         <v>34</v>
@@ -1340,7 +1343,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1367,7 +1370,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1419,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1464,7 +1467,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1500,7 +1503,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>37</v>
@@ -1536,7 +1539,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>38</v>
@@ -1572,7 +1575,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>41</v>
@@ -1608,7 +1611,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>39</v>
@@ -1644,7 +1647,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>40</v>
@@ -1680,7 +1683,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
@@ -1716,7 +1719,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>42</v>
@@ -1761,7 +1764,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>43</v>
@@ -1794,7 +1797,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>44</v>
@@ -1827,7 +1830,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>45</v>
@@ -1860,7 +1863,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>46</v>
@@ -1893,7 +1896,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
@@ -1921,7 +1924,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
         <v>47</v>
@@ -1966,7 +1969,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
         <v>64</v>
@@ -2003,7 +2006,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="56" t="s">
         <v>48</v>
@@ -2040,7 +2043,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="56" t="s">
         <v>49</v>
@@ -2075,7 +2078,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="56"/>
       <c r="C23" s="9" t="s">
@@ -2106,7 +2109,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
@@ -2137,7 +2140,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>50</v>
@@ -2163,9 +2166,8 @@
         <f>SUM(I26:I29)</f>
         <v>8</v>
       </c>
-      <c r="J25" s="58" t="str">
-        <f>IF(COUNTIF(J26:J30, "Not Started") = COUNT(J26:J30), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J25" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="1"/>
@@ -2183,7 +2185,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>51</v>
@@ -2200,9 +2202,11 @@
         <v>4</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2218,7 +2222,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="56" t="s">
         <v>71</v>
@@ -2253,7 +2257,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="56" t="s">
         <v>72</v>
@@ -2288,7 +2292,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56"/>
       <c r="C29" s="9" t="s">
@@ -2319,7 +2323,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
@@ -2350,7 +2354,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
         <v>52</v>
@@ -2396,7 +2400,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>73</v>
@@ -2431,7 +2435,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
         <v>53</v>
@@ -2466,7 +2470,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>54</v>
@@ -2501,7 +2505,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="56" t="s">
         <v>55</v>
@@ -2536,7 +2540,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="20" t="s">
         <v>74</v>
@@ -2571,7 +2575,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>56</v>
@@ -2617,7 +2621,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
         <v>57</v>
@@ -2652,7 +2656,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>58</v>
@@ -2687,7 +2691,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>59</v>
@@ -2722,7 +2726,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="56"/>
       <c r="C41" s="9" t="s">
@@ -2753,7 +2757,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
@@ -2784,7 +2788,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
         <v>60</v>
@@ -2830,7 +2834,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="56" t="s">
         <v>65</v>
@@ -2865,7 +2869,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
         <v>66</v>
@@ -2900,7 +2904,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>67</v>
@@ -2935,7 +2939,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="56"/>
       <c r="C47" s="9" t="s">
@@ -2966,7 +2970,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
@@ -2997,7 +3001,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
         <v>61</v>
@@ -3043,7 +3047,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>68</v>
@@ -3078,7 +3082,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="56" t="s">
         <v>77</v>
@@ -3111,7 +3115,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="56"/>
       <c r="C52" s="9" t="s">
@@ -3142,7 +3146,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="56"/>
       <c r="C53" s="9" t="s">
@@ -3173,7 +3177,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="56"/>
       <c r="C54" s="9" t="s">
@@ -3204,7 +3208,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="42" t="s">
         <v>23</v>
@@ -3243,7 +3247,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="36" t="s">
         <v>25</v>
@@ -3282,7 +3286,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3309,7 +3313,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3336,7 +3340,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3468,62 +3472,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>26</v>
       </c>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F55B7A-FA6C-4D07-9D81-68875CC9E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBFEFE-1E8E-4FD2-941E-E4479F9CC65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -272,12 +272,6 @@
     <t>The start of a project that can be expanded upon. It will have fun, smooth movement, basic enemy AI, unique visuals made possible with shaders, lighting, and a unique artstyle.</t>
   </si>
   <si>
-    <t>Create different states for the boss</t>
-  </si>
-  <si>
-    <t>Create the transitions between those states</t>
-  </si>
-  <si>
     <t>Find a way to change Z value of camera based on where player is on the map</t>
   </si>
   <si>
@@ -294,6 +288,18 @@
   </si>
   <si>
     <t>Took way less time than I thought it would take (approx 1h 30)</t>
+  </si>
+  <si>
+    <t>Create Door class</t>
+  </si>
+  <si>
+    <t>The doors need to close when the boss wakes up so I had to make a reusable door class</t>
+  </si>
+  <si>
+    <t>Create different states for the boss (2/6)</t>
+  </si>
+  <si>
+    <t>Create the transitions between those states (2/6)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +434,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFCA6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -565,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +763,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,6 +958,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAFCA6"/>
+      <color rgb="FFEBEFB3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1242,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1989,7 +2011,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2026,7 +2048,7 @@
         <v>63</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2164,7 +2186,7 @@
       </c>
       <c r="I25" s="59">
         <f>SUM(I26:I29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="58" t="s">
         <v>62</v>
@@ -2205,7 +2227,7 @@
         <v>63</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2224,8 +2246,8 @@
     </row>
     <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="56" t="s">
-        <v>71</v>
+      <c r="B27" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2239,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="1"/>
@@ -2259,8 +2281,8 @@
     </row>
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="56" t="s">
-        <v>72</v>
+      <c r="B28" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -2274,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>
@@ -2294,7 +2316,9 @@
     </row>
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="64" t="s">
+        <v>77</v>
+      </c>
       <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
@@ -2303,11 +2327,15 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
       <c r="J29" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2403,7 +2431,7 @@
     <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2543,7 +2571,7 @@
     <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>22</v>
@@ -3085,7 +3113,7 @@
     <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>22</v>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBFEFE-1E8E-4FD2-941E-E4479F9CC65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347F5C1-DEFA-47D9-9FCE-A7C0BDEC1FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -296,10 +296,16 @@
     <t>The doors need to close when the boss wakes up so I had to make a reusable door class</t>
   </si>
   <si>
-    <t>Create different states for the boss (2/6)</t>
-  </si>
-  <si>
-    <t>Create the transitions between those states (2/6)</t>
+    <t>Create Shockwave object</t>
+  </si>
+  <si>
+    <t>Created a showckwave object that can be used by any enemy if they need it</t>
+  </si>
+  <si>
+    <t>Create different states for the boss (3/6)</t>
+  </si>
+  <si>
+    <t>Create the transitions between those states (3/6)</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2247,7 +2253,7 @@
     <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2282,7 +2288,7 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -2353,7 +2359,9 @@
     </row>
     <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="64" t="s">
+        <v>79</v>
+      </c>
       <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
@@ -2362,11 +2370,15 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
       <c r="J30" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3441,7 +3453,7 @@
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A26:A29 C26:I29 A30:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56">
+  <conditionalFormatting sqref="K5 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A31:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56 A26:A30 C26:I30">
     <cfRule type="expression" dxfId="7" priority="18">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347F5C1-DEFA-47D9-9FCE-A7C0BDEC1FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5730273-70FA-47B9-8F3B-7690D89CB896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -302,10 +302,10 @@
     <t>Created a showckwave object that can be used by any enemy if they need it</t>
   </si>
   <si>
-    <t>Create different states for the boss (3/6)</t>
-  </si>
-  <si>
-    <t>Create the transitions between those states (3/6)</t>
+    <t>Create the transitions between those states (6/6)</t>
+  </si>
+  <si>
+    <t>Create different states for the boss (6/6)</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2253,7 @@
     <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>22</v>
@@ -2288,7 +2288,7 @@
     <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
@@ -3453,7 +3453,7 @@
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A31:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56 A26:A30 C26:I30">
+  <conditionalFormatting sqref="K5 A15:A18 C15:I18 A19:I19 A20:A23 C20:I23 A24:I25 A26:A30 C26:I30 A31:I31 A32:A35 C32:I35 A36:I37 A38:A41 C38:I41 A42:I43 A44:A47 C44:I47 A48:I49 A50:A54 C50:I54 A55:I56">
     <cfRule type="expression" dxfId="7" priority="18">
       <formula>REGEXMATCH($J5,".*Complete.*")</formula>
     </cfRule>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5730273-70FA-47B9-8F3B-7690D89CB896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3290247F-D043-4C53-9E94-B8D7D3C071BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>Create different states for the boss (6/6)</t>
+  </si>
+  <si>
+    <t>Took way more time than I thought it would (extra 2-3 hours)</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>I ended up making a system for doors in the previous week</t>
+  </si>
+  <si>
+    <t>Not an important enough aspect of the game to get started on yet</t>
+  </si>
+  <si>
+    <t>Taking a lot longer than what is written down</t>
   </si>
 </sst>
 </file>
@@ -387,7 +402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFCA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,6 +793,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1576,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
       <c r="J7" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="1"/>
@@ -1585,7 +1612,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
       <c r="J8" s="63" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="1"/>
@@ -1621,7 +1648,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="11"/>
       <c r="J9" s="63" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="1"/>
@@ -2195,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="1"/>
@@ -2267,9 +2294,11 @@
         <v>2</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2302,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>
@@ -2420,9 +2449,8 @@
         <f>SUM(I32:I36)</f>
         <v>9</v>
       </c>
-      <c r="J31" s="58" t="str">
-        <f>IF(COUNTIF(J32:J36, "Not Started") = COUNT(J32:J36), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J31" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="1"/>
@@ -2457,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="1"/>
@@ -2492,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="1"/>
@@ -2527,9 +2555,11 @@
         <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2547,7 +2577,7 @@
     </row>
     <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -2562,9 +2592,11 @@
         <v>2</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2582,7 +2614,7 @@
     </row>
     <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="66" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2597,9 +2629,11 @@
         <v>1</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3290247F-D043-4C53-9E94-B8D7D3C071BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB5EA6-7897-4B12-8B62-F7FD8456DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/VGP430_Project_Plan.xlsx
+++ b/VGP430_Project_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcv2142576\Documents\GitHub\Senior-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Quarter 11\Senior-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB5EA6-7897-4B12-8B62-F7FD8456DD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9675993-8354-4934-BA6B-1FADD5B929EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="19800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid Project Plan" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -1297,26 +1297,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="88.7109375" customWidth="1"/>
-    <col min="12" max="25" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="88.6640625" customWidth="1"/>
+    <col min="12" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1357,7 +1357,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
         <v>34</v>
@@ -1398,7 +1398,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1425,7 +1425,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>18</v>
@@ -1522,7 +1522,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="26" t="s">
         <v>36</v>
@@ -1558,7 +1558,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="26" t="s">
         <v>37</v>
@@ -1594,7 +1594,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="26" t="s">
         <v>38</v>
@@ -1630,7 +1630,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="27" t="s">
         <v>41</v>
@@ -1666,7 +1666,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="27" t="s">
         <v>39</v>
@@ -1702,7 +1702,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="26" t="s">
         <v>40</v>
@@ -1738,7 +1738,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
@@ -1774,7 +1774,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="54" t="s">
         <v>42</v>
@@ -1819,7 +1819,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="55" t="s">
         <v>43</v>
@@ -1852,7 +1852,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" s="56" t="s">
         <v>44</v>
@@ -1885,7 +1885,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
       <c r="B16" s="56" t="s">
         <v>45</v>
@@ -1918,7 +1918,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="27" t="s">
         <v>46</v>
@@ -1951,7 +1951,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
         <v>47</v>
@@ -2024,7 +2024,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="56" t="s">
         <v>64</v>
@@ -2061,7 +2061,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="56" t="s">
         <v>48</v>
@@ -2098,7 +2098,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="56" t="s">
         <v>49</v>
@@ -2133,7 +2133,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="56"/>
       <c r="C23" s="9" t="s">
@@ -2164,7 +2164,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
@@ -2195,7 +2195,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>50</v>
@@ -2240,7 +2240,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="56" t="s">
         <v>51</v>
@@ -2277,7 +2277,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="65" t="s">
         <v>82</v>
@@ -2314,7 +2314,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="65" t="s">
         <v>81</v>
@@ -2349,7 +2349,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="64" t="s">
         <v>77</v>
@@ -2386,7 +2386,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="64" t="s">
         <v>79</v>
@@ -2423,7 +2423,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
         <v>52</v>
@@ -2450,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
         <v>71</v>
@@ -2503,7 +2503,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="56" t="s">
         <v>53</v>
@@ -2538,7 +2538,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="56" t="s">
         <v>54</v>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>87</v>
@@ -2575,7 +2575,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="67" t="s">
         <v>55</v>
@@ -2612,7 +2612,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="66" t="s">
         <v>72</v>
@@ -2649,7 +2649,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>56</v>
@@ -2675,9 +2675,8 @@
         <f>SUM(I38:I42)</f>
         <v>8</v>
       </c>
-      <c r="J37" s="58" t="str">
-        <f>IF(COUNTIF(J38:J42, "Not Started") = COUNT(J38:J42), "Complete", "Not Started")</f>
-        <v>Not Started</v>
+      <c r="J37" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="1"/>
@@ -2695,7 +2694,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
         <v>57</v>
@@ -2712,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="1"/>
@@ -2730,7 +2729,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="56" t="s">
         <v>58</v>
@@ -2747,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="1"/>
@@ -2765,7 +2764,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="56" t="s">
         <v>59</v>
@@ -2782,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="1"/>
@@ -2800,7 +2799,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="56"/>
       <c r="C41" s="9" t="s">
@@ -2831,7 +2830,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
@@ -2862,7 +2861,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
         <v>60</v>
@@ -2908,7 +2907,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="56" t="s">
         <v>65</v>
@@ -2943,7 +2942,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="56" t="s">
         <v>66</v>
@@ -2978,7 +2977,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="56" t="s">
         <v>67</v>
@@ -3013,7 +3012,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="56"/>
       <c r="C47" s="9" t="s">
@@ -3044,7 +3043,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
@@ -3075,7 +3074,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
         <v>61</v>
@@ -3121,7 +3120,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="56" t="s">
         <v>68</v>
@@ -3156,7 +3155,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="56" t="s">
         <v>75</v>
@@ -3189,7 +3188,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="56"/>
       <c r="C52" s="9" t="s">
@@ -3220,7 +3219,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="56"/>
       <c r="C53" s="9" t="s">
@@ -3251,7 +3250,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="56"/>
       <c r="C54" s="9" t="s">
@@ -3282,7 +3281,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42" t="s">
         <v>23</v>
@@ -3321,7 +3320,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="36" t="s">
         <v>25</v>
@@ -3360,7 +3359,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3387,7 +3386,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3414,7 +3413,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3546,62 +3545,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>26</v>
       </c>
